--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/artfynd/A 35302-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/artfynd/A 35302-2021.xlsx", "A 35302-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/kartor/A 35302-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/kartor/A 35302-2021.png", "A 35302-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/klagomål/A 35302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/klagomål/A 35302-2021.docx", "A 35302-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/klagomålsmail/A 35302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/klagomålsmail/A 35302-2021.docx", "A 35302-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/tillsyn/A 35302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/tillsyn/A 35302-2021.docx", "A 35302-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/tillsynsmail/A 35302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRASTORP/tillsynsmail/A 35302-2021.docx", "A 35302-2021")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>43433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43437</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>43442</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>43473</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>43475</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>43493</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43640</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43706</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>43727</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>43781</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>43781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43787</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43803</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43900</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43900</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43930</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43930</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43935</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43984</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43997</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44021</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44022</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44034</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44046</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44063</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44131</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44166</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>44167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44203</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44270</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44522</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44643</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44663</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44724</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44806</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44808</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45026</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45078</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45085</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45146</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
